--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
   <si>
     <t>Personnes :</t>
   </si>
@@ -540,7 +540,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,7 +804,10 @@
       <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>46</v>
       </c>
     </row>

--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
   <si>
     <t>Personnes :</t>
   </si>
@@ -147,19 +147,10 @@
     <t xml:space="preserve">Fantou </t>
   </si>
   <si>
-    <t>30h Hors code</t>
-  </si>
-  <si>
-    <t>72h de code</t>
-  </si>
-  <si>
-    <t>Total :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102h </t>
-  </si>
-  <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Data Base</t>
   </si>
 </sst>
 </file>
@@ -537,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +592,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>2</v>
@@ -618,10 +609,10 @@
         <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>3</v>
@@ -635,7 +626,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>30</v>
@@ -649,7 +640,7 @@
         <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -660,7 +651,7 @@
         <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -674,10 +665,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -691,10 +682,10 @@
         <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -708,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -722,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -745,7 +736,7 @@
         <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -759,16 +750,16 @@
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -782,16 +773,16 @@
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -805,10 +796,10 @@
         <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -822,29 +813,29 @@
         <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>46</v>
+      <c r="K17" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>31</v>
@@ -853,12 +844,12 @@
         <v>30</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>31</v>
@@ -867,55 +858,56 @@
         <v>30</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>45</v>
+      <c r="K26" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
